--- a/biology/Botanique/Diplotaxe_à_feuilles_ténues/Diplotaxe_à_feuilles_ténues.xlsx
+++ b/biology/Botanique/Diplotaxe_à_feuilles_ténues/Diplotaxe_à_feuilles_ténues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
+          <t>Diplotaxe_à_feuilles_ténues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplotaxis tenuifolia
 La Diplotaxis à feuilles étroites, Roquette sauvage ou Roquette jaune (Diplotaxis tenuifolia), est une espèce de plante à fleurs de la famille des Brassicacées (ou Crucifères). C'est une espèce de plante comestible
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
+          <t>Diplotaxe_à_feuilles_ténues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse dans les endroits en friche, en particulier au bord des rivières et de la mer et même aussi sur le béton.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
+          <t>Diplotaxe_à_feuilles_ténues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale et méridionale ; Asie occidentale. L'aire de répartition est en extension.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
+          <t>Diplotaxe_à_feuilles_ténues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette diplotaxe est une plante herbacée à feuilles généralement pennatilobées, ayant comme toutes les crucifères des fleurs à quatre sépales, quatre pétales et six étamines. Les fleurs sont jaunes. Les fruits sont des siliques déhiscentes, minces, terminées par un court bec, avec des valves à nervure médiane marquée. Les graines sont disposées sur deux rangs dans le fruit, d'où le nom grec de Diplotaxis (= double ordre). Les racines pivotantes sont particulièrement développées.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diplotaxe_à_feuilles_ténues</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-octobre
 Inflorescence : racème simple
@@ -595,31 +648,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diplotaxe_à_feuilles_ténues</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Diplotaxe_%C3%A0_feuilles_t%C3%A9nues</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme la roquette (Eruca sativa), la roquette jaune peut être utilisée en cuisine pour relever plats ou salades et leur apporter une saveur piquante.
 Sur les autres projets Wikimedia :
